--- a/results/Best_functionals/values_for_notebook.xlsx
+++ b/results/Best_functionals/values_for_notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/results/Best_functionals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6DA9E7-E3CF-914C-B736-9C4F2EEAE619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BB217C-6276-FA40-88AC-154412F75008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="740" windowWidth="27020" windowHeight="13660" xr2:uid="{8F3B7B49-9D52-B34B-B3B3-4EC741A2EB77}"/>
   </bookViews>
@@ -1247,16 +1247,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>258634</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>332795</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>167233</xdr:rowOff>
+      <xdr:rowOff>74532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>750874</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>435692</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>120512</xdr:rowOff>
+      <xdr:rowOff>27811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1603,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7989C678-4E52-D541-B46B-F64A3EB2F590}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="227" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results/Best_functionals/values_for_notebook.xlsx
+++ b/results/Best_functionals/values_for_notebook.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/results/Best_functionals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BB217C-6276-FA40-88AC-154412F75008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298B91A9-1F96-DF48-B11C-1F0CEB9E8492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="740" windowWidth="27020" windowHeight="13660" xr2:uid="{8F3B7B49-9D52-B34B-B3B3-4EC741A2EB77}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="52880" windowHeight="26300" xr2:uid="{8F3B7B49-9D52-B34B-B3B3-4EC741A2EB77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>functional</t>
   </si>
@@ -52,9 +51,6 @@
   </si>
   <si>
     <t>PBE</t>
-  </si>
-  <si>
-    <t>M08-HX</t>
   </si>
   <si>
     <t>Fe_only</t>
@@ -218,9 +214,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>B3LYP</c:v>
                 </c:pt>
@@ -232,19 +228,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>PBE</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>M08-HX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.5123468725763054</c:v>
                 </c:pt>
@@ -256,9 +249,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.0005260765936654</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,9 +285,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>B3LYP</c:v>
                 </c:pt>
@@ -309,19 +299,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>PBE</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>M08-HX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.0199083064731354</c:v>
                 </c:pt>
@@ -369,9 +356,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>B3LYP</c:v>
                 </c:pt>
@@ -383,19 +370,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>PBE</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>M08-HX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>9.2003261905890144E-2</c:v>
                 </c:pt>
@@ -407,9 +391,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.29238699481168351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,9 +427,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>B3LYP</c:v>
                 </c:pt>
@@ -460,19 +441,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>PBE</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>M08-HX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>-1.5142227082424631E-2</c:v>
                 </c:pt>
@@ -484,9 +462,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14124625117664213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,16 +1222,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>332795</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>74532</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>435692</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>27811</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1603,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7989C678-4E52-D541-B46B-F64A3EB2F590}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="227" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="274" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1617,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1698,18 +1673,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3.87</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.29238699481168351</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.14124625117664213</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
